--- a/data/base.xlsx
+++ b/data/base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\4uck0ff.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\4uck0ff.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5344414B-110D-4926-9E58-BA0D032E27BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF32DE-651A-4213-9750-5B4FEB49C3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>images\R.png</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>images\nophoto.png</t>
+  </si>
+  <si>
+    <t>текст статьи 1</t>
+  </si>
+  <si>
+    <t>текст статьи 2</t>
+  </si>
+  <si>
+    <t>текст статьи 3</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 1</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 3</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 22</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 4</t>
+  </si>
+  <si>
+    <t>images\nophoto.jpg</t>
   </si>
 </sst>
 </file>
@@ -78,9 +96,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -362,34 +381,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>45677</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>123</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45679</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45679</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{8E439321-640E-453D-A12F-12EADB2F5B18}"/>
+    <hyperlink ref="D1" r:id="rId1" display="images\R.png" xr:uid="{8E439321-640E-453D-A12F-12EADB2F5B18}"/>
+    <hyperlink ref="D2" r:id="rId2" display="images\R.png" xr:uid="{62E58CA5-E8C3-425B-B0E3-617CF7D4B00B}"/>
+    <hyperlink ref="D3" r:id="rId3" display="images\R.png" xr:uid="{5545C054-59C6-479D-A513-FF491E9F47AE}"/>
+    <hyperlink ref="D4" r:id="rId4" display="images\R.png" xr:uid="{5A3A2D47-39C1-4AEF-9E2B-F4856ED916DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/base.xlsx
+++ b/data/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\4uck0ff.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF32DE-651A-4213-9750-5B4FEB49C3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D920E708-836F-47CF-BD61-7157E1F43AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,40 +25,406 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>images\nophoto.png</t>
-  </si>
-  <si>
-    <t>текст статьи 1</t>
-  </si>
-  <si>
-    <t>текст статьи 2</t>
-  </si>
-  <si>
-    <t>текст статьи 3</t>
-  </si>
-  <si>
-    <t>Заголовок статьи 1</t>
-  </si>
-  <si>
-    <t>Заголовок статьи 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="97">
+  <si>
+    <t>21.05.2025</t>
+  </si>
+  <si>
+    <t>НА ЧЕПЕЦКОМ МЕХАНИЧЕСКОМ 
+ЗАВОДЕ (АО ЧМЗ, ПРЕДПРИЯТИЕ
+ ТОПЛИВНОГО ДИВИЗИОНА
+ «РОСАТОМА» В Г. ГЛАЗОВ, 
+УДМУРТСКАЯ РЕСПУБЛИКА) 
+ЗАПУЩЕНО ПРОИЗВОДСТВО 
+ТИТАНОВЫХ ПОРОШКОВ 
+ДЛЯ 3D-ПЕЧАТИ ПО ТЕХНОЛОГИИ
+ СЕЛЕКТИВНОГО ЛАЗЕРНОГО 
+ПЛАВЛЕНИЯ – SLM. НОВОЕ
+ ПРОИЗВОДСТВО - ВАЖНЫЙ ЭТАП
+ В РАЗВИТИИ БИЗНЕС-НАПРАВЛЕНИЯ
+ «АДДИТИВНЫЕ ТЕХНОЛОГИИ» В 
+ТОПЛИВНОМ ДИВИЗИОНЕ 
+«РОСАТОМА», ОНО ПОЗВОЛИТ 
+ОБЕСПЕЧИТЬ ОТЕЧЕСТВЕННЫМИ
+ МАТЕРИАЛАМИ РАСТУЩИЕ 
+МОЩНОСТИ 3D-ПЕЧАТИ В СТРАНЕ.</t>
+  </si>
+  <si>
+    <t>images\R.png</t>
+  </si>
+  <si>
+    <t>22.05.2025</t>
+  </si>
+  <si>
+    <t>images\note.png</t>
+  </si>
+  <si>
+    <t>21.05.2026</t>
+  </si>
+  <si>
+    <t>images\phone.jpg</t>
+  </si>
+  <si>
+    <t>22.05.2026</t>
+  </si>
+  <si>
+    <t>21.05.2027</t>
+  </si>
+  <si>
+    <t>22.05.2027</t>
+  </si>
+  <si>
+    <t>21.05.2028</t>
+  </si>
+  <si>
+    <t>НА ЧЕПЕЦКОМ МЕХАНИЧЕСКОМ 
+ЗАВОДЕ (АО ЧМЗ, ПРЕДПРИЯТИЕ
+ ТОПЛИВНОГО ДИВИЗИОНА
+ «РОСАТОМА» В Г. ГЛАЗОВ, 
+УДМУРТСКАЯ РЕСПУБЛИКА) 
+ЗАПУЩЕНО ПРОИЗВОДСТВО 
+ТИТАНОВЫХ ПОРОШКОВ 
+ДЛЯ 3D-ПЕЧАТИ ПО ТЕХНОЛОГИИ
+ СЕЛЕКТИВНОГО ЛАЗЕРНОГО 
+ПЛАВЛЕНИЯ – SLM. НОВОЕ
+ ПРОИЗВОДСТВО - ВАЖНЫЙ ЭТАП
+ В РАЗВИТИИ БИЗНЕС-НАПРАВЛЕНИЯ
+ «АДДИТИВНЫЕ ТЕХНОЛОГИИ» В 
+ТОПЛИВНОМ ДИВИЗИОНЕ 
+«РОСАТОМА», ОНО ПОЗВОЛИТ 
+ОБЕСПЕЧИТЬ ОТЕЧЕСТВЕННЫМИ
+ МАТЕРИАЛАМИ РАСТУЩИЕ НА ЧЕПЕЦКОМ МЕХАНИЧЕСКОМ 
+ЗАВОДЕ (АО ЧМЗ, ПРЕДПРИЯТИЕ
+ ТОПЛИВНОГО ДИВИЗИОНА
+ «РОСАТОМА» В Г. ГЛАЗОВ, 
+УДМУРТСКАЯ РЕСПУБЛИКА) 
+ЗАПУЩЕНО ПРОИЗВОДСТВО 
+ТИТАНОВЫХ ПОРОШКОВ 
+ДЛЯ 3D-ПЕЧАТИ ПО ТЕХНОЛОГИИ
+ СЕЛЕКТИВНОГО ЛАЗЕРНОГО 
+ПЛАВЛЕНИЯ – SLM. НОВОЕ
+ ПРОИЗВОДСТВО - ВАЖНЫЙ ЭТАП
+ В РАЗВИТИИ БИЗНЕС-НАПРАВЛЕНИЯ
+ «АДДИТИВНЫЕ ТЕХНОЛОГИИ» В 
+ТОПЛИВНОМ ДИВИЗИОНЕ 
+«РОСАТОМА», ОНО ПОЗВОЛИТ 
+ОБЕСПЕЧИТЬ ОТЕЧЕСТВЕННЫМИ
+ МАТЕРИАЛАМИ РАСТУЩИЕ 
+МОЩНОСТИ 3D-ПЕЧАТИ В СТРАНЕ.
+МОЩНОСТИ 3D-ПЕЧАТИ В СТРАНЕ.</t>
+  </si>
+  <si>
+    <t>22.05.2028</t>
+  </si>
+  <si>
+    <t>21.05.2029</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 10</t>
+  </si>
+  <si>
+    <t>22.05.2029</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 11</t>
+  </si>
+  <si>
+    <t>21.05.2030</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 12</t>
+  </si>
+  <si>
+    <t>22.05.2030</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 13</t>
+  </si>
+  <si>
+    <t>21.05.2031</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 14</t>
+  </si>
+  <si>
+    <t>22.05.2031</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 15</t>
+  </si>
+  <si>
+    <t>21.05.2032</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 16</t>
+  </si>
+  <si>
+    <t>22.05.2032</t>
+  </si>
+  <si>
+    <t>НА ЧЕПЕЦКОМ МЕХАНИЧЕСКОМ 
+ЗАВОДЕ (АО ЧМЗ, ПРЕДПРИЯТИЕ
+ ТОПЛИВНОГО ДИВИЗИОНА
+ «РОСАТОМА» В Г. ГЛАЗОВ, 
+УДМУРТСКАЯ РЕСПУБЛИКА) 
+ЗАПУЩЕНО ПРОИЗВОДСТВО 
+ТИТАНОВЫХ ПОРОШКОВ 
+ДЛЯ 3D-ПЕЧАТИ ПО ТЕХНОЛОГИИ
+ СЕЛЕКТИВНОГО ЛАЗЕРНОГО 
+ПЛАВЛЕНИЯ – SLM. НОВОЕ
+ ПРОИЗВОДСТВО - ВАЖНЫЙ ЭТАП
+ В РАЗВИТИИ БИЗНЕС-НАПРАВЛЕНИЯ
+ «АДДИТИВНЫЕ ТЕХНОЛОГИИ» В 
+ТОПЛИВНОМ ДИВИЗИОНЕ 
+«РОСАТОМА», ОНО ПОЗВОЛИТ 
+ОБЕСПЕЧИТЬ ОТЕЧЕСТВЕННЫМИ
+ МАТЕРИАЛАМИ РАСТУЩИЕ 
+МОЩНОСТИ 3D-ПЕЧАТИ В СТРАНЕ.НА ЧЕПЕЦКОМ МЕХАНИЧЕСКОМ 
+ЗАВОДЕ (АО ЧМЗ, ПРЕДПРИЯТИЕ
+ ТОПЛИВНОГО ДИВИЗИОНА
+ «РОСАТОМА» В Г. ГЛАЗОВ, 
+УДМУРТСКАЯ РЕСПУБЛИКА) 
+ЗАПУЩЕНО ПРОИЗВОДСТВО 
+ТИТАНОВЫХ ПОРОШКОВ 
+ДЛЯ 3D-ПЕЧАТИ ПО ТЕХНОЛОГИИ
+ СЕЛЕКТИВНОГО ЛАЗЕРНОГО 
+ПЛАВЛЕНИЯ – SLM. НОВОЕ
+ ПРОИЗВОДСТВО - ВАЖНЫЙ ЭТАП
+ В РАЗВИТИИ БИЗНЕС-НАПРАВЛЕНИЯ
+ «АДДИТИВНЫЕ ТЕХНОЛОГИИ» В 
+ТОПЛИВНОМ ДИВИЗИОНЕ 
+«РОСАТОМА», ОНО ПОЗВОЛИТ 
+ОБЕСПЕЧИТЬ ОТЕЧЕСТВЕННЫМИ
+ МАТЕРИАЛАМИ РАСТУЩИЕ 
+МОЩНОСТИ 3D-ПЕЧАТИ В СТРАНЕ.НА ЧЕПЕЦКОМ МЕХАНИЧЕСКОМ 
+ЗАВОДЕ (АО ЧМЗ, ПРЕДПРИЯТИЕ
+ ТОПЛИВНОГО ДИВИЗИОНА
+ «РОСАТОМА» В Г. ГЛАЗОВ, 
+УДМУРТСКАЯ РЕСПУБЛИКА) 
+ЗАПУЩЕНО ПРОИЗВОДСТВО 
+ТИТАНОВЫХ ПОРОШКОВ 
+ДЛЯ 3D-ПЕЧАТИ ПО ТЕХНОЛОГИИ
+ СЕЛЕКТИВНОГО ЛАЗЕРНОГО 
+ПЛАВЛЕНИЯ – SLM. НОВОЕ
+ ПРОИЗВОДСТВО - ВАЖНЫЙ ЭТАП
+ В РАЗВИТИИ БИЗНЕС-НАПРАВЛЕНИЯ
+ «АДДИТИВНЫЕ ТЕХНОЛОГИИ» В 
+ТОПЛИВНОМ ДИВИЗИОНЕ 
+«РОСАТОМА», ОНО ПОЗВОЛИТ 
+ОБЕСПЕЧИТЬ ОТЕЧЕСТВЕННЫМИ
+ МАТЕРИАЛАМИ РАСТУЩИЕ 
+МОЩНОСТИ 3D-ПЕЧАТИ В СТРАНЕ.</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 17</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 18</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 19</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 20</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 21</t>
   </si>
   <si>
     <t>Заголовок статьи 22</t>
   </si>
   <si>
-    <t>Заголовок статьи 4</t>
-  </si>
-  <si>
-    <t>images\nophoto.jpg</t>
+    <t>Заголовок статьи 23</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 24</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 25</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 26</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 27</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 28</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 29</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 30</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 31</t>
+  </si>
+  <si>
+    <t>21.05.2033</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 32</t>
+  </si>
+  <si>
+    <t>22.05.2033</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 33</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 34</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 35</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 36</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 37</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 38</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 39</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 40</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 41</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 42</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 43</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 44</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 45</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 46</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 47</t>
+  </si>
+  <si>
+    <t>21.05.2034</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 48</t>
+  </si>
+  <si>
+    <t>22.05.2034</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 49</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 50</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 51</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 52</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 53</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 54</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 55</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 56</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 57</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 58</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 59</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 60</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 61</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 62</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 63</t>
+  </si>
+  <si>
+    <t>21.05.2035</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 64</t>
+  </si>
+  <si>
+    <t>22.05.2035</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 65</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 66</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 67</t>
+  </si>
+  <si>
+    <t>Заголовок статьи 68</t>
+  </si>
+  <si>
+    <t>Собака и бульбулятор</t>
+  </si>
+  <si>
+    <t>Чипинкос съел деда</t>
+  </si>
+  <si>
+    <t>Паша техник скурил весь ганджубас</t>
+  </si>
+  <si>
+    <t>Кирпичи по 200р</t>
+  </si>
+  <si>
+    <t>Волосатый пёс</t>
+  </si>
+  <si>
+    <t>Триколор</t>
+  </si>
+  <si>
+    <t>Отдых в анапе</t>
+  </si>
+  <si>
+    <t>Чингачгук убил своих детей но зачем</t>
+  </si>
+  <si>
+    <t>название статьи</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +436,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,10 +468,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -381,82 +756,1044 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2">
-        <v>45677</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45678</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>45679</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>45679</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="images\R.png" xr:uid="{8E439321-640E-453D-A12F-12EADB2F5B18}"/>
-    <hyperlink ref="D2" r:id="rId2" display="images\R.png" xr:uid="{62E58CA5-E8C3-425B-B0E3-617CF7D4B00B}"/>
-    <hyperlink ref="D3" r:id="rId3" display="images\R.png" xr:uid="{5545C054-59C6-479D-A513-FF491E9F47AE}"/>
-    <hyperlink ref="D4" r:id="rId4" display="images\R.png" xr:uid="{5A3A2D47-39C1-4AEF-9E2B-F4856ED916DF}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{33873844-7383-40E4-89AB-B329F4016F2D}"/>
+    <hyperlink ref="D2" r:id="rId2" display="images\R.png" xr:uid="{966A814E-B3DB-4E04-BCA5-672168F97856}"/>
+    <hyperlink ref="D3" r:id="rId3" display="images\R.png" xr:uid="{D4C75AA0-65C1-494D-9F7A-3922B681210C}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{E2DB7557-AA9D-4F90-AAB6-19193FB55F6A}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{F5C66105-170A-41BB-9EF4-E885D0F43F1D}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{64F8E0EF-198E-4F57-8654-46269763A111}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{ED94768E-251F-4E52-972A-E07F99C007BB}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{4B1412A8-4120-47F3-8F48-6CCAA448390F}"/>
+    <hyperlink ref="D5" r:id="rId9" display="images\R.png" xr:uid="{5D52F25D-32E6-497C-92CF-A45EF1F213EB}"/>
+    <hyperlink ref="D8" r:id="rId10" display="images\R.png" xr:uid="{52A0ADB3-9759-41FC-80C9-FC459E4DB075}"/>
+    <hyperlink ref="D11" r:id="rId11" display="images\R.png" xr:uid="{7DB5FEFA-81E0-4CE7-BB0A-EB275266791A}"/>
+    <hyperlink ref="D14" r:id="rId12" display="images\R.png" xr:uid="{4F861B9C-D799-4C93-A698-FFDBCA18B5B0}"/>
+    <hyperlink ref="D6" r:id="rId13" display="images\R.png" xr:uid="{CC0D895E-E172-41EF-AFB6-BD8EA129ECB3}"/>
+    <hyperlink ref="D9" r:id="rId14" display="images\R.png" xr:uid="{EA3D692C-6037-49D1-9551-363FD99EB2FB}"/>
+    <hyperlink ref="D12" r:id="rId15" display="images\R.png" xr:uid="{4A071634-CED7-4D87-A50F-F29DC23147DB}"/>
+    <hyperlink ref="D15" r:id="rId16" display="images\R.png" xr:uid="{014D93AE-8D27-4D09-AAA3-1DC53F506C72}"/>
+    <hyperlink ref="D17" r:id="rId17" xr:uid="{E53E1B85-82BE-419A-B542-05FD79DE5A68}"/>
+    <hyperlink ref="D33" r:id="rId18" xr:uid="{962E5633-79E0-422F-A985-C5F4248D1F7C}"/>
+    <hyperlink ref="D49" r:id="rId19" xr:uid="{F668155C-06FB-4EDE-9BA3-A749ADA051C9}"/>
+    <hyperlink ref="D65" r:id="rId20" xr:uid="{78EB65E4-BA69-487A-8015-9EC6C8D7DC73}"/>
+    <hyperlink ref="D18" r:id="rId21" display="images\R.png" xr:uid="{1F7F689A-5074-4B36-9B25-F2AD4ACF9FB3}"/>
+    <hyperlink ref="D34" r:id="rId22" display="images\R.png" xr:uid="{D0D1A44B-0F30-43E9-AA5D-E4679E401F08}"/>
+    <hyperlink ref="D50" r:id="rId23" display="images\R.png" xr:uid="{205B5762-C372-40F2-AEA9-9619C054C6B9}"/>
+    <hyperlink ref="D66" r:id="rId24" display="images\R.png" xr:uid="{9272137C-ED33-42FB-BE7A-03C416AD7CBA}"/>
+    <hyperlink ref="D19" r:id="rId25" display="images\R.png" xr:uid="{54E055DB-E576-49CA-9DD7-B1FFBFED25DC}"/>
+    <hyperlink ref="D35" r:id="rId26" display="images\R.png" xr:uid="{C99BEC45-1397-4ABF-BC78-7B4426D5CE52}"/>
+    <hyperlink ref="D51" r:id="rId27" display="images\R.png" xr:uid="{7385A9F1-4F3A-40F5-B58B-ABE40AD2A893}"/>
+    <hyperlink ref="D67" r:id="rId28" display="images\R.png" xr:uid="{0E1CFD0E-867C-4E91-BE09-308E6AF84F68}"/>
+    <hyperlink ref="D20" r:id="rId29" xr:uid="{B7E6AC76-E840-442F-AAD1-0AC641302274}"/>
+    <hyperlink ref="D36" r:id="rId30" xr:uid="{7DBF7F19-5C1C-40ED-9181-732671D835E1}"/>
+    <hyperlink ref="D52" r:id="rId31" xr:uid="{14DE3556-0D6F-40A7-AA82-DD46E472E13C}"/>
+    <hyperlink ref="D68" r:id="rId32" xr:uid="{32D4D345-1DA4-44E5-8A31-7E43B4A8D84D}"/>
+    <hyperlink ref="D23" r:id="rId33" xr:uid="{3175FFFE-2F0E-47CA-8A0C-FE2DA5547530}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{A8CF1F75-B022-4D50-BC0A-FAA65D3E3D1E}"/>
+    <hyperlink ref="D55" r:id="rId35" xr:uid="{B231021E-E163-401E-A06F-FBD0061ED2EA}"/>
+    <hyperlink ref="D26" r:id="rId36" xr:uid="{2E2A7D13-9CB6-40F7-BBF9-BDE44AE79394}"/>
+    <hyperlink ref="D42" r:id="rId37" xr:uid="{BDD830A1-D5BB-4B59-9307-381E48111F6B}"/>
+    <hyperlink ref="D58" r:id="rId38" xr:uid="{73E8E17C-279E-4612-907C-51DF2457E8B0}"/>
+    <hyperlink ref="D29" r:id="rId39" xr:uid="{9B25CC5D-2118-4F3A-9B03-94B11200F946}"/>
+    <hyperlink ref="D45" r:id="rId40" xr:uid="{BB5BD575-53BB-448B-9E26-86F4ACD87735}"/>
+    <hyperlink ref="D61" r:id="rId41" xr:uid="{5332E9C2-B799-4167-9F89-85881470233C}"/>
+    <hyperlink ref="D32" r:id="rId42" xr:uid="{C5E3A5A3-9C17-4A6B-BDC6-E8B6A431240A}"/>
+    <hyperlink ref="D48" r:id="rId43" xr:uid="{211D9AE1-B87D-4673-8F6D-9171FBCFED06}"/>
+    <hyperlink ref="D64" r:id="rId44" xr:uid="{6F8A7F21-5690-447D-98D1-F38B48A5B376}"/>
+    <hyperlink ref="D21" r:id="rId45" display="images\R.png" xr:uid="{E9CBB7B3-1E2D-45E9-98F9-2D93A3D77758}"/>
+    <hyperlink ref="D37" r:id="rId46" display="images\R.png" xr:uid="{7974F040-F81C-4481-88B1-AE54BA72A154}"/>
+    <hyperlink ref="D53" r:id="rId47" display="images\R.png" xr:uid="{F0D9DC15-3F47-4584-B0AB-3E0ABEFF060F}"/>
+    <hyperlink ref="D24" r:id="rId48" display="images\R.png" xr:uid="{5D5B3921-ECFD-4D0D-A7CF-8D5A3E55F14E}"/>
+    <hyperlink ref="D40" r:id="rId49" display="images\R.png" xr:uid="{CC6702E6-2CA6-4480-96FB-A50AAEDCFF5E}"/>
+    <hyperlink ref="D56" r:id="rId50" display="images\R.png" xr:uid="{28F03311-B7BD-4E78-9317-D0C82B5367D3}"/>
+    <hyperlink ref="D27" r:id="rId51" display="images\R.png" xr:uid="{D32AF3B6-551F-44E2-AC38-5712A941B786}"/>
+    <hyperlink ref="D43" r:id="rId52" display="images\R.png" xr:uid="{00DEDD96-F6B6-4D00-83AF-42D42321487E}"/>
+    <hyperlink ref="D59" r:id="rId53" display="images\R.png" xr:uid="{3FFA0F82-7E7E-44CA-A23A-56D9FD350AA8}"/>
+    <hyperlink ref="D30" r:id="rId54" display="images\R.png" xr:uid="{82A27BDA-2A54-439D-A428-7097A437040D}"/>
+    <hyperlink ref="D46" r:id="rId55" display="images\R.png" xr:uid="{0D657351-BE2B-407F-9E95-3C8018703F96}"/>
+    <hyperlink ref="D62" r:id="rId56" display="images\R.png" xr:uid="{207BB559-9910-4E8A-BADE-3C00F13FA047}"/>
+    <hyperlink ref="D22" r:id="rId57" display="images\R.png" xr:uid="{DAFB44D2-C90C-44A9-A8FD-DE7832A204B5}"/>
+    <hyperlink ref="D38" r:id="rId58" display="images\R.png" xr:uid="{600CF97B-FF9B-4E10-B915-28A0E89E189C}"/>
+    <hyperlink ref="D54" r:id="rId59" display="images\R.png" xr:uid="{6D6E2419-5FE7-49F5-BB7D-9A30A2308F2B}"/>
+    <hyperlink ref="D25" r:id="rId60" display="images\R.png" xr:uid="{15947D54-7175-4C7D-A4B6-1484FAD51949}"/>
+    <hyperlink ref="D41" r:id="rId61" display="images\R.png" xr:uid="{E7878FBD-9818-4343-8068-6ADF0FFE1EA9}"/>
+    <hyperlink ref="D57" r:id="rId62" display="images\R.png" xr:uid="{8FE7E96D-40D3-44F2-8D29-79252242E940}"/>
+    <hyperlink ref="D28" r:id="rId63" display="images\R.png" xr:uid="{829B5537-F0B5-4779-A76F-E5C1AC0FFE94}"/>
+    <hyperlink ref="D44" r:id="rId64" display="images\R.png" xr:uid="{977DFF7F-DA68-4257-B1A3-239F6948CED8}"/>
+    <hyperlink ref="D60" r:id="rId65" display="images\R.png" xr:uid="{35EC150A-8F25-4AA8-93FB-D1BEEB341417}"/>
+    <hyperlink ref="D31" r:id="rId66" display="images\R.png" xr:uid="{2A36E82D-0CF7-449B-A3B7-459DA7FABFF0}"/>
+    <hyperlink ref="D47" r:id="rId67" display="images\R.png" xr:uid="{361F6081-F008-45C0-B96B-CB06831FA7E4}"/>
+    <hyperlink ref="D63" r:id="rId68" display="images\R.png" xr:uid="{6C56E816-9CA3-431F-8C1B-326F6CB0AABD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
